--- a/data/trans_orig/P16A99-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A99-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B0BD339-D8D7-4615-9837-97434975CB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F209ABA4-D420-45D7-84B8-8138AC6E5D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{52C7D913-FC33-40A2-9DA2-A6685D11ED71}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{83A8E11F-58A1-4A33-9C84-E496BA65E85D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="168">
   <si>
     <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2007 (Tasa respuesta: 49,81%)</t>
   </si>
@@ -116,291 +116,291 @@
     <t>0,38%</t>
   </si>
   <si>
-    <t>1,97%</t>
+    <t>1,7%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2012 (Tasa respuesta: 40,03%)</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
   </si>
   <si>
     <t>99,18%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2012 (Tasa respuesta: 40,03%)</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
   </si>
   <si>
     <t>99,58%</t>
   </si>
   <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
   </si>
   <si>
     <t>0,06%</t>
   </si>
   <si>
-    <t>0,34%</t>
-  </si>
-  <si>
     <t>0,21%</t>
   </si>
   <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2015 (Tasa respuesta: 43,2%)</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
+    <t>1,0%</t>
   </si>
   <si>
     <t>99,28%</t>
   </si>
   <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2015 (Tasa respuesta: 43,2%)</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
     <t>99,0%</t>
   </si>
   <si>
@@ -443,7 +443,7 @@
     <t>0,3%</t>
   </si>
   <si>
-    <t>1,53%</t>
+    <t>1,52%</t>
   </si>
   <si>
     <t>0,55%</t>
@@ -452,13 +452,13 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>0,67%</t>
+    <t>0,91%</t>
   </si>
   <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>98,47%</t>
+    <t>98,48%</t>
   </si>
   <si>
     <t>99,45%</t>
@@ -467,19 +467,31 @@
     <t>99,83%</t>
   </si>
   <si>
-    <t>99,33%</t>
+    <t>99,09%</t>
   </si>
   <si>
     <t>0,08%</t>
   </si>
   <si>
+    <t>0,39%</t>
+  </si>
+  <si>
     <t>0,05%</t>
   </si>
   <si>
+    <t>0,25%</t>
+  </si>
+  <si>
     <t>99,92%</t>
   </si>
   <si>
+    <t>99,61%</t>
+  </si>
+  <si>
     <t>99,95%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
   </si>
   <si>
     <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2023 (Tasa respuesta: 35,25%)</t>
@@ -942,7 +954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E797063-BB26-49DA-AD60-501471627CE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43227E2D-A540-457D-BED6-4AA2F7D3D5D3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1877,7 +1889,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1895,7 +1907,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -1907,10 +1919,10 @@
         <v>1399722</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>17</v>
@@ -1922,10 +1934,10 @@
         <v>3347384</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>17</v>
@@ -1984,7 +1996,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2005,7 +2017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD370B5E-40D5-4C8B-B311-111B3ADAE205}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C318BF0E-4EA1-4194-B7AB-8BBB5DD87C2E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2022,7 +2034,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2135,7 +2147,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2150,7 +2162,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2165,7 +2177,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2183,7 +2195,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2198,7 +2210,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2213,7 +2225,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2290,7 +2302,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2305,7 +2317,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2320,7 +2332,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,7 +2350,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -2353,7 +2365,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -2368,7 +2380,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -2445,7 +2457,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2454,13 +2466,13 @@
         <v>1078</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -2469,13 +2481,13 @@
         <v>1078</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,7 +2505,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -2505,10 +2517,10 @@
         <v>299920</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -2615,7 +2627,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2663,7 +2675,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -2779,13 +2791,13 @@
         <v>1100</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2803,7 +2815,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -2818,7 +2830,7 @@
         <v>29</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -2830,10 +2842,10 @@
         <v>747583</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -2904,13 +2916,13 @@
         <v>1048</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -2919,13 +2931,13 @@
         <v>2177</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2934,13 +2946,13 @@
         <v>3225</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,10 +2967,10 @@
         <v>1696771</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
@@ -2970,10 +2982,10 @@
         <v>1058638</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>17</v>
@@ -2985,13 +2997,13 @@
         <v>2755409</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,7 +3059,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3068,7 +3080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A99289-7E85-4804-ACFA-CAFECC2BE678}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC5F2F25-2A6F-4DD1-B848-583F2813BB30}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3085,7 +3097,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3198,37 +3210,37 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,7 +3258,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3261,7 +3273,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3276,7 +3288,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3353,7 +3365,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3368,7 +3380,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3401,7 +3413,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3431,7 +3443,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -3973,7 +3985,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3997,13 +4009,13 @@
         <v>1332</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,10 +4030,10 @@
         <v>1704362</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
@@ -4048,10 +4060,10 @@
         <v>2950288</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>17</v>
@@ -4110,7 +4122,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -4131,7 +4143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2384E0FA-2208-42F0-91F1-76F5BD08F4D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616FF88D-103C-425A-8285-980C5B75881D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4148,7 +4160,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4261,7 +4273,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4276,7 +4288,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4291,7 +4303,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,7 +4321,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4324,7 +4336,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4339,7 +4351,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -4416,7 +4428,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4431,7 +4443,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4464,7 +4476,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -4479,7 +4491,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -4494,7 +4506,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -4601,7 +4613,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4619,7 +4631,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -4649,7 +4661,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -4726,7 +4738,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4741,7 +4753,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4774,7 +4786,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -4789,7 +4801,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -4896,7 +4908,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4944,7 +4956,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -5036,7 +5048,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5051,7 +5063,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5066,7 +5078,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5084,7 +5096,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -5099,7 +5111,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -5114,7 +5126,7 @@
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -5173,7 +5185,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A99-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A99-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F209ABA4-D420-45D7-84B8-8138AC6E5D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{753F08C8-BC23-4A0E-B6BF-1080F73EEB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{83A8E11F-58A1-4A33-9C84-E496BA65E85D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A84104E2-189F-4936-8C05-BACB4393ED9E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -107,7 +107,7 @@
     <t>98,21%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,57%</t>
@@ -116,262 +116,274 @@
     <t>0,38%</t>
   </si>
   <si>
-    <t>1,7%</t>
+    <t>1,67%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2012 (Tasa respuesta: 40,03%)</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
   </si>
   <si>
     <t>99,17%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
   </si>
   <si>
     <t>99,85%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2012 (Tasa respuesta: 40,03%)</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
   </si>
   <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
   </si>
   <si>
     <t>99,31%</t>
   </si>
   <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
     <t>99,88%</t>
   </si>
   <si>
-    <t>99,68%</t>
-  </si>
-  <si>
     <t>99,96%</t>
   </si>
   <si>
-    <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2015 (Tasa respuesta: 43,2%)</t>
+    <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2016 (Tasa respuesta: 43,2%)</t>
   </si>
   <si>
     <t>3,42%</t>
@@ -443,7 +455,7 @@
     <t>0,3%</t>
   </si>
   <si>
-    <t>1,52%</t>
+    <t>1,5%</t>
   </si>
   <si>
     <t>0,55%</t>
@@ -452,13 +464,10 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>98,48%</t>
+    <t>98,5%</t>
   </si>
   <si>
     <t>99,45%</t>
@@ -467,9 +476,6 @@
     <t>99,83%</t>
   </si>
   <si>
-    <t>99,09%</t>
-  </si>
-  <si>
     <t>0,08%</t>
   </si>
   <si>
@@ -479,9 +485,6 @@
     <t>0,05%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
     <t>99,92%</t>
   </si>
   <si>
@@ -489,9 +492,6 @@
   </si>
   <si>
     <t>99,95%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
   </si>
   <si>
     <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2023 (Tasa respuesta: 35,25%)</t>
@@ -954,7 +954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43227E2D-A540-457D-BED6-4AA2F7D3D5D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA17551C-818E-4A2F-9E6C-88267A1DC444}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1564,22 +1564,22 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1597,7 +1597,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -1612,7 +1612,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -1627,7 +1627,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1704,37 +1704,37 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1752,7 +1752,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -1767,7 +1767,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -1782,7 +1782,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -1859,7 +1859,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -1868,13 +1868,13 @@
         <v>978</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -1883,13 +1883,13 @@
         <v>978</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1907,7 +1907,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -1919,10 +1919,10 @@
         <v>1399722</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>17</v>
@@ -1934,10 +1934,10 @@
         <v>3347384</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>17</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2017,7 +2017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C318BF0E-4EA1-4194-B7AB-8BBB5DD87C2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED4CAFB-38F3-4153-BDDB-C2A17FB4DBBF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2034,7 +2034,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2147,37 +2147,37 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2195,7 +2195,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2210,7 +2210,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2225,7 +2225,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2302,37 +2302,37 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2350,7 +2350,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -2365,7 +2365,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -2380,7 +2380,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -2457,7 +2457,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2466,13 +2466,13 @@
         <v>1078</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -2481,13 +2481,13 @@
         <v>1078</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2505,7 +2505,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -2517,10 +2517,10 @@
         <v>299920</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -2627,7 +2627,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2642,7 +2642,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,10 +2657,10 @@
         <v>396051</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -2675,7 +2675,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -2690,7 +2690,7 @@
         <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -2749,7 +2749,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2767,7 +2767,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2782,7 +2782,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -2791,13 +2791,13 @@
         <v>1100</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2815,7 +2815,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -2830,7 +2830,7 @@
         <v>29</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -2842,10 +2842,10 @@
         <v>747583</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -2916,13 +2916,13 @@
         <v>1048</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -2931,13 +2931,13 @@
         <v>2177</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2946,10 +2946,10 @@
         <v>3225</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>103</v>
@@ -2967,10 +2967,10 @@
         <v>1696771</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
@@ -2982,10 +2982,10 @@
         <v>1058638</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>17</v>
@@ -2997,13 +2997,13 @@
         <v>2755409</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3059,7 +3059,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -3080,7 +3080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC5F2F25-2A6F-4DD1-B848-583F2813BB30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88FDDA43-4CCA-4BE7-AB6D-04FF50A7B604}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3097,7 +3097,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3210,7 +3210,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3225,7 +3225,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,7 +3258,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3273,7 +3273,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3288,7 +3288,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3365,7 +3365,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3380,7 +3380,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,7 +3413,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3428,7 +3428,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3443,7 +3443,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -3520,7 +3520,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,7 +3568,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -3583,7 +3583,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3598,7 +3598,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -3675,7 +3675,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3690,7 +3690,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,7 +3723,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -3738,7 +3738,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -3753,7 +3753,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3812,7 +3812,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3824,13 +3824,13 @@
         <v>1332</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3845,7 +3845,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3854,13 +3854,13 @@
         <v>1332</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>137</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3875,10 +3875,10 @@
         <v>439274</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -3893,7 +3893,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -3905,10 +3905,10 @@
         <v>802041</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -3979,13 +3979,13 @@
         <v>1332</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4009,13 +4009,13 @@
         <v>1332</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>146</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4030,10 +4030,10 @@
         <v>1704362</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
@@ -4060,10 +4060,10 @@
         <v>2950288</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>17</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4143,7 +4143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616FF88D-103C-425A-8285-980C5B75881D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B46752F-DD50-4D1E-B4C8-9DECABC49E65}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4428,7 +4428,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,7 +4476,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -4506,7 +4506,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -4583,7 +4583,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4598,7 +4598,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4613,7 +4613,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,7 +4631,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -4646,7 +4646,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -4661,7 +4661,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -4768,7 +4768,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,7 +4816,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -4875,7 +4875,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4908,7 +4908,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -4956,7 +4956,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -5078,7 +5078,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,7 +5126,7 @@
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -5185,7 +5185,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
